--- a/sources/Basque_data.xlsx
+++ b/sources/Basque_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="697">
   <si>
     <t>language_no</t>
   </si>
@@ -2070,49 +2070,49 @@
     <t>lotsatu</t>
   </si>
   <si>
-    <t>ERGDAT</t>
-  </si>
-  <si>
-    <t>ABSIN</t>
-  </si>
-  <si>
-    <t>ABSABL</t>
-  </si>
-  <si>
-    <t>ABSALL</t>
-  </si>
-  <si>
-    <t>ABSkontra</t>
-  </si>
-  <si>
-    <t>ERGINS</t>
-  </si>
-  <si>
-    <t>DATABS</t>
-  </si>
-  <si>
-    <t>ABSbaitan</t>
-  </si>
-  <si>
-    <t>ABSINS</t>
-  </si>
-  <si>
-    <t>ABSABS</t>
-  </si>
-  <si>
-    <t>ABSDAT</t>
-  </si>
-  <si>
-    <t>ERGIN</t>
-  </si>
-  <si>
-    <t>ABSCOM</t>
-  </si>
-  <si>
-    <t>ERGCOM</t>
-  </si>
-  <si>
-    <t>ABSMOT</t>
+    <t>ABS_ABL</t>
+  </si>
+  <si>
+    <t>ABS_ABS</t>
+  </si>
+  <si>
+    <t>ABS_ALL</t>
+  </si>
+  <si>
+    <t>ABS_baitan</t>
+  </si>
+  <si>
+    <t>ABS_COM</t>
+  </si>
+  <si>
+    <t>ABS_DAT</t>
+  </si>
+  <si>
+    <t>ABS_IN</t>
+  </si>
+  <si>
+    <t>ABS_INS</t>
+  </si>
+  <si>
+    <t>ABS_kontra</t>
+  </si>
+  <si>
+    <t>ABS_MOT</t>
+  </si>
+  <si>
+    <t>DAT_ABS</t>
+  </si>
+  <si>
+    <t>ERG_COM</t>
+  </si>
+  <si>
+    <t>ERG_DAT</t>
+  </si>
+  <si>
+    <t>ERG_IN</t>
+  </si>
+  <si>
+    <t>ERG_INS</t>
   </si>
 </sst>
 </file>
@@ -2536,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2651,18 +2651,22 @@
       <c r="I2" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>538</v>
-      </c>
+      <c r="M2" s="11"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="11" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2690,24 +2694,26 @@
         <v>539</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>541</v>
-      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="11" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2744,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="5"/>
@@ -2752,7 +2758,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2780,9 +2786,11 @@
         <v>545</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>540</v>
       </c>
@@ -2795,7 +2803,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2819,22 +2827,28 @@
       <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>546</v>
-      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2864,18 +2878,22 @@
       <c r="I7" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="11" t="s">
-        <v>548</v>
-      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2912,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="5"/>
@@ -2920,7 +2938,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -2948,9 +2966,11 @@
         <v>550</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>540</v>
       </c>
@@ -2963,7 +2983,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -2991,9 +3011,11 @@
         <v>551</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>540</v>
       </c>
@@ -3006,7 +3028,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -3043,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="5"/>
@@ -3051,7 +3073,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3079,9 +3101,11 @@
         <v>553</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>540</v>
       </c>
@@ -3094,7 +3118,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3131,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="5"/>
@@ -3139,7 +3163,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -3176,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="5"/>
@@ -3184,7 +3208,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3221,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="5"/>
@@ -3229,7 +3253,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3257,9 +3281,11 @@
         <v>560</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>540</v>
       </c>
@@ -3272,7 +3298,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3300,9 +3326,11 @@
         <v>561</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>540</v>
       </c>
@@ -3315,7 +3343,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3352,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="5"/>
@@ -3360,7 +3388,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -3388,9 +3416,11 @@
         <v>563</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>540</v>
       </c>
@@ -3403,7 +3433,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3431,9 +3461,11 @@
         <v>564</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>540</v>
       </c>
@@ -3446,7 +3478,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3474,9 +3506,11 @@
         <v>565</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>540</v>
       </c>
@@ -3489,7 +3523,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="11"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3526,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="5"/>
@@ -3534,7 +3568,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3562,9 +3596,11 @@
         <v>568</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>540</v>
       </c>
@@ -3577,7 +3613,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3614,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="5"/>
@@ -3622,7 +3658,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="11"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3652,18 +3688,22 @@
       <c r="I25" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
-        <v>571</v>
-      </c>
+      <c r="M25" s="11"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="11" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3700,7 +3740,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="5"/>
@@ -3708,7 +3748,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3736,9 +3776,11 @@
         <v>574</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>540</v>
       </c>
@@ -3751,7 +3793,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -3779,9 +3821,11 @@
         <v>575</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>540</v>
       </c>
@@ -3794,7 +3838,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -3831,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="5"/>
@@ -3839,7 +3883,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -3876,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="5"/>
@@ -3884,7 +3928,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3921,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="5"/>
@@ -3929,7 +3973,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -3966,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="5"/>
@@ -3974,7 +4018,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="11"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -4002,9 +4046,11 @@
         <v>581</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K33" s="5" t="s">
         <v>540</v>
       </c>
@@ -4017,7 +4063,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="11"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4045,9 +4091,11 @@
         <v>581</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>540</v>
       </c>
@@ -4060,7 +4108,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4088,10 +4136,10 @@
         <v>582</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>583</v>
+        <v>543</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>540</v>
@@ -4105,7 +4153,9 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4142,7 +4192,7 @@
         <v>9</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="5"/>
@@ -4150,7 +4200,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4178,9 +4228,11 @@
         <v>585</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>540</v>
       </c>
@@ -4193,7 +4245,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="11"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -4230,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="5"/>
@@ -4238,7 +4290,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="11"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4266,9 +4318,11 @@
         <v>539</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>540</v>
       </c>
@@ -4281,7 +4335,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4309,9 +4363,11 @@
         <v>587</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>540</v>
       </c>
@@ -4324,7 +4380,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="11"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
@@ -4352,9 +4408,11 @@
         <v>588</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>540</v>
       </c>
@@ -4367,7 +4425,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="11"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -4395,9 +4453,11 @@
         <v>589</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>540</v>
       </c>
@@ -4410,7 +4470,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="11"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -4438,10 +4498,10 @@
         <v>590</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>540</v>
@@ -4455,7 +4515,9 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4483,9 +4545,11 @@
         <v>592</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>540</v>
       </c>
@@ -4498,7 +4562,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="11"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4526,9 +4590,11 @@
         <v>593</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>540</v>
       </c>
@@ -4541,7 +4607,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="11"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4569,9 +4635,11 @@
         <v>594</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>540</v>
       </c>
@@ -4584,7 +4652,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="11"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4612,10 +4680,10 @@
         <v>595</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>540</v>
@@ -4629,7 +4697,9 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4657,9 +4727,11 @@
         <v>597</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>540</v>
       </c>
@@ -4672,7 +4744,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="11"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4700,9 +4772,11 @@
         <v>598</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J49" s="8"/>
+        <v>543</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>540</v>
       </c>
@@ -4715,7 +4789,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="4"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4743,9 +4817,11 @@
         <v>599</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>540</v>
       </c>
@@ -4758,7 +4834,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="11"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
@@ -4786,9 +4862,11 @@
         <v>600</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>540</v>
       </c>
@@ -4801,7 +4879,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="11"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -4838,7 +4916,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="5"/>
@@ -4846,7 +4924,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="11"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4874,9 +4952,11 @@
         <v>601</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>540</v>
       </c>
@@ -4889,7 +4969,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="11"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -4926,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="5"/>
@@ -4934,7 +5014,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="11"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -4971,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M55" s="11"/>
       <c r="N55" s="5"/>
@@ -4979,7 +5059,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="11"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5007,9 +5087,11 @@
         <v>604</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>540</v>
       </c>
@@ -5022,7 +5104,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="11"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5059,7 +5141,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="5"/>
@@ -5067,7 +5149,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="11"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5095,9 +5177,11 @@
         <v>606</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>540</v>
       </c>
@@ -5110,7 +5194,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="11"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5147,17 +5231,17 @@
         <v>8</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>608</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="M59" s="11"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="11" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5185,9 +5269,11 @@
         <v>609</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J60" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K60" s="5" t="s">
         <v>540</v>
       </c>
@@ -5200,7 +5286,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="11"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5228,9 +5314,11 @@
         <v>610</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>540</v>
       </c>
@@ -5243,7 +5331,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="11"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5280,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="5"/>
@@ -5288,7 +5376,7 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="14"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5325,7 +5413,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="5"/>
@@ -5333,7 +5421,7 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="11"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5361,9 +5449,11 @@
         <v>613</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>540</v>
       </c>
@@ -5376,7 +5466,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="11"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -5400,22 +5490,28 @@
       <c r="G65" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I65" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L65" s="11"/>
-      <c r="M65" s="11" t="s">
-        <v>614</v>
-      </c>
+      <c r="M65" s="11"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="11" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5439,22 +5535,28 @@
       <c r="G66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I66" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L66" s="11"/>
-      <c r="M66" s="11" t="s">
-        <v>615</v>
-      </c>
+      <c r="M66" s="11"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="11" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5482,9 +5584,11 @@
         <v>616</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>540</v>
       </c>
@@ -5497,7 +5601,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="11"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5521,22 +5625,28 @@
       <c r="G68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I68" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="J68" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L68" s="11"/>
-      <c r="M68" s="4" t="s">
-        <v>617</v>
-      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="4" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5564,9 +5674,11 @@
         <v>618</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>540</v>
       </c>
@@ -5579,7 +5691,7 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="11"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -5607,9 +5719,11 @@
         <v>619</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>540</v>
       </c>
@@ -5622,7 +5736,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="11"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5650,9 +5764,11 @@
         <v>620</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>540</v>
       </c>
@@ -5665,7 +5781,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="11"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -5693,9 +5809,11 @@
         <v>621</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>540</v>
       </c>
@@ -5708,7 +5826,7 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
+      <c r="S72" s="11"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
@@ -5736,9 +5854,11 @@
         <v>622</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>540</v>
       </c>
@@ -5751,7 +5871,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="11"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -5788,7 +5908,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="5"/>
@@ -5796,7 +5916,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -5824,9 +5944,11 @@
         <v>624</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>540</v>
       </c>
@@ -5839,7 +5961,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="11"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -5867,9 +5989,11 @@
         <v>625</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>540</v>
       </c>
@@ -5882,7 +6006,7 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="11"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -5910,9 +6034,11 @@
         <v>626</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>540</v>
       </c>
@@ -5925,7 +6051,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="11"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -5962,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="5"/>
@@ -5970,7 +6096,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="11"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -5998,9 +6124,11 @@
         <v>628</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>540</v>
       </c>
@@ -6013,7 +6141,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="11"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6050,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="5"/>
@@ -6058,7 +6186,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="11"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6095,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="5"/>
@@ -6103,7 +6231,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="11"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6140,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="5"/>
@@ -6148,7 +6276,7 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="11"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6185,17 +6313,17 @@
         <v>9</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>633</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6219,22 +6347,28 @@
       <c r="G84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H84" s="10"/>
+      <c r="H84" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I84" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="J84" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L84" s="11"/>
-      <c r="M84" s="4" t="s">
-        <v>634</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6271,7 +6405,7 @@
         <v>9</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="5"/>
@@ -6279,7 +6413,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="11"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6316,7 +6450,7 @@
         <v>9</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="5"/>
@@ -6324,7 +6458,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="11"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6352,24 +6486,26 @@
         <v>637</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L87" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="M87" s="11" t="s">
-        <v>638</v>
-      </c>
+      <c r="M87" s="11"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="11" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6397,9 +6533,11 @@
         <v>639</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K88" s="5" t="s">
         <v>540</v>
       </c>
@@ -6412,7 +6550,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="11"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6440,9 +6578,11 @@
         <v>640</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J89" s="8"/>
+        <v>543</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K89" s="5" t="s">
         <v>540</v>
       </c>
@@ -6455,7 +6595,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="4"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6492,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="5"/>
@@ -6500,7 +6640,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="4"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6537,7 +6677,7 @@
         <v>9</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="5"/>
@@ -6545,7 +6685,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="11"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6573,9 +6713,11 @@
         <v>643</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>540</v>
       </c>
@@ -6588,7 +6730,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="11"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6625,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="5"/>
@@ -6633,7 +6775,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="4"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6661,9 +6803,11 @@
         <v>645</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>540</v>
       </c>
@@ -6676,7 +6820,7 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="11"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -6713,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M95" s="11"/>
       <c r="N95" s="5"/>
@@ -6721,7 +6865,7 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="11"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -6758,7 +6902,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M96" s="11"/>
       <c r="N96" s="5"/>
@@ -6766,7 +6910,7 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="11"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -6794,9 +6938,11 @@
         <v>648</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>540</v>
       </c>
@@ -6809,7 +6955,7 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="11"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -6846,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="5"/>
@@ -6854,7 +7000,7 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="11"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -6891,7 +7037,7 @@
         <v>9</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M99" s="11"/>
       <c r="N99" s="5"/>
@@ -6899,7 +7045,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="11"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -6936,7 +7082,7 @@
         <v>9</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M100" s="11"/>
       <c r="N100" s="5"/>
@@ -6944,7 +7090,7 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="11"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -6972,9 +7118,11 @@
         <v>651</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>540</v>
       </c>
@@ -6987,7 +7135,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="11"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7024,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M102" s="11"/>
       <c r="N102" s="5"/>
@@ -7032,7 +7180,7 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="11"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7060,9 +7208,11 @@
         <v>545</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>540</v>
       </c>
@@ -7075,7 +7225,7 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="11"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -7103,24 +7253,26 @@
         <v>590</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M104" s="11" t="s">
-        <v>653</v>
-      </c>
+      <c r="M104" s="11"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="11" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7157,7 +7309,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="M105" s="11"/>
       <c r="N105" s="5"/>
@@ -7165,7 +7317,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="11"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7193,9 +7345,11 @@
         <v>655</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>540</v>
       </c>
@@ -7208,7 +7362,7 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="11"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
@@ -7236,9 +7390,11 @@
         <v>582</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>540</v>
       </c>
@@ -7251,7 +7407,7 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="11"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -7288,7 +7444,7 @@
         <v>9</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M108" s="11"/>
       <c r="N108" s="5"/>
@@ -7296,7 +7452,7 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="11"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7324,9 +7480,11 @@
         <v>657</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>540</v>
       </c>
@@ -7339,7 +7497,7 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="11"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
@@ -7367,9 +7525,11 @@
         <v>658</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>540</v>
       </c>
@@ -7382,7 +7542,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="11"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7410,9 +7570,11 @@
         <v>659</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>540</v>
       </c>
@@ -7425,7 +7587,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="11"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7449,22 +7611,28 @@
       <c r="G112" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="I112" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="J112" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L112" s="11"/>
-      <c r="M112" s="11" t="s">
-        <v>660</v>
-      </c>
+      <c r="M112" s="11"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="11" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7501,7 +7669,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
@@ -7509,7 +7677,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="4"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7546,7 +7714,7 @@
         <v>9</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M114" s="11"/>
       <c r="N114" s="5"/>
@@ -7554,7 +7722,7 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="11"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7591,7 +7759,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M115" s="11"/>
       <c r="N115" s="5"/>
@@ -7599,7 +7767,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="11"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7636,7 +7804,7 @@
         <v>9</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M116" s="11"/>
       <c r="N116" s="5"/>
@@ -7644,7 +7812,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="11"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7681,7 +7849,7 @@
         <v>9</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="5"/>
@@ -7689,7 +7857,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="4"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7726,7 +7894,7 @@
         <v>9</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M118" s="11"/>
       <c r="N118" s="5"/>
@@ -7734,7 +7902,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="11"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -7771,7 +7939,7 @@
         <v>9</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M119" s="11"/>
       <c r="N119" s="5"/>
@@ -7779,7 +7947,7 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="11"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -7809,18 +7977,22 @@
       <c r="I120" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="J120" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L120" s="11"/>
-      <c r="M120" s="11" t="s">
-        <v>668</v>
-      </c>
+      <c r="M120" s="11"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="11" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -7848,9 +8020,11 @@
         <v>669</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J121" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>540</v>
       </c>
@@ -7863,7 +8037,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="11"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -7891,9 +8065,11 @@
         <v>670</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>540</v>
       </c>
@@ -7906,7 +8082,7 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="11"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -7936,18 +8112,22 @@
       <c r="I123" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L123" s="11"/>
-      <c r="M123" s="11" t="s">
-        <v>671</v>
-      </c>
+      <c r="M123" s="11"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="11" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -7977,18 +8157,22 @@
       <c r="I124" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L124" s="11"/>
-      <c r="M124" s="11" t="s">
-        <v>673</v>
-      </c>
+      <c r="M124" s="11"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="11" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8016,9 +8200,11 @@
         <v>674</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>540</v>
       </c>
@@ -8031,7 +8217,7 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="11"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8061,18 +8247,22 @@
       <c r="I126" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L126" s="11"/>
-      <c r="M126" s="11" t="s">
-        <v>675</v>
-      </c>
+      <c r="M126" s="11"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="11" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8100,9 +8290,11 @@
         <v>676</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>540</v>
       </c>
@@ -8115,7 +8307,7 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="11"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8152,7 +8344,7 @@
         <v>9</v>
       </c>
       <c r="L128" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="M128" s="11"/>
       <c r="N128" s="5"/>
@@ -8160,7 +8352,7 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="11"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8190,18 +8382,22 @@
       <c r="I129" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L129" s="11"/>
-      <c r="M129" s="11" t="s">
-        <v>679</v>
-      </c>
+      <c r="M129" s="11"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="11" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8229,9 +8425,11 @@
         <v>680</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>540</v>
       </c>
@@ -8244,7 +8442,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="11"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8281,7 +8479,7 @@
         <v>9</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M131" s="11"/>
       <c r="N131" s="5"/>
@@ -8289,7 +8487,7 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>
